--- a/nba/Excel/leaders_nba.xlsx
+++ b/nba/Excel/leaders_nba.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="74">
   <si>
     <t>Rank</t>
   </si>
@@ -39,12 +39,12 @@
     <t>Luka Doncic</t>
   </si>
   <si>
+    <t>Anfernee Simons</t>
+  </si>
+  <si>
     <t>CJ McCollum</t>
   </si>
   <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
     <t>Trae Young</t>
   </si>
   <si>
@@ -54,24 +54,21 @@
     <t>DAL</t>
   </si>
   <si>
+    <t>POR</t>
+  </si>
+  <si>
     <t>NO</t>
   </si>
   <si>
-    <t>POR</t>
-  </si>
-  <si>
     <t>ATL</t>
   </si>
   <si>
-    <t>4.9</t>
+    <t>5.0</t>
   </si>
   <si>
     <t>4.0</t>
   </si>
   <si>
-    <t>3.5</t>
-  </si>
-  <si>
     <t>3.4</t>
   </si>
   <si>
@@ -93,13 +90,13 @@
     <t>LAC</t>
   </si>
   <si>
-    <t>11.6</t>
-  </si>
-  <si>
-    <t>10.9</t>
-  </si>
-  <si>
-    <t>9.5</t>
+    <t>11.7</t>
+  </si>
+  <si>
+    <t>10.8</t>
+  </si>
+  <si>
+    <t>9.4</t>
   </si>
   <si>
     <t>9.0</t>
@@ -117,78 +114,87 @@
     <t>Giannis Antetokounmpo</t>
   </si>
   <si>
+    <t>Kevin Durant</t>
+  </si>
+  <si>
+    <t>PHI</t>
+  </si>
+  <si>
+    <t>OKC</t>
+  </si>
+  <si>
+    <t>MIL</t>
+  </si>
+  <si>
+    <t>PHX</t>
+  </si>
+  <si>
+    <t>35.3</t>
+  </si>
+  <si>
+    <t>34.5</t>
+  </si>
+  <si>
+    <t>31.1</t>
+  </si>
+  <si>
+    <t>30.7</t>
+  </si>
+  <si>
+    <t>28.3</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
+    <t>Anthony Davis</t>
+  </si>
+  <si>
+    <t>SAC</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>DET</t>
+  </si>
+  <si>
+    <t>LAL</t>
+  </si>
+  <si>
+    <t>13.2</t>
+  </si>
+  <si>
+    <t>12.5</t>
+  </si>
+  <si>
+    <t>12.2</t>
+  </si>
+  <si>
+    <t>12.1</t>
+  </si>
+  <si>
     <t>Donovan Mitchell</t>
   </si>
   <si>
-    <t>PHI</t>
-  </si>
-  <si>
-    <t>OKC</t>
-  </si>
-  <si>
-    <t>MIL</t>
+    <t>De'Aaron Fox</t>
+  </si>
+  <si>
+    <t>Kawhi Leonard</t>
+  </si>
+  <si>
+    <t>Paul George</t>
   </si>
   <si>
     <t>CLE</t>
   </si>
   <si>
-    <t>35.3</t>
-  </si>
-  <si>
-    <t>34.6</t>
-  </si>
-  <si>
-    <t>31.1</t>
-  </si>
-  <si>
-    <t>28.5</t>
-  </si>
-  <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
-    <t>Anthony Davis</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>SAC</t>
-  </si>
-  <si>
-    <t>MIN</t>
-  </si>
-  <si>
-    <t>LAL</t>
-  </si>
-  <si>
-    <t>DET</t>
-  </si>
-  <si>
-    <t>13.1</t>
-  </si>
-  <si>
-    <t>12.5</t>
-  </si>
-  <si>
-    <t>12.2</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
-    <t>De'Aaron Fox</t>
-  </si>
-  <si>
-    <t>Kawhi Leonard</t>
-  </si>
-  <si>
-    <t>De'Anthony Melton</t>
-  </si>
-  <si>
     <t>2.2</t>
   </si>
   <si>
@@ -222,7 +228,7 @@
     <t>UTAH</t>
   </si>
   <si>
-    <t>3.1</t>
+    <t>3.0</t>
   </si>
   <si>
     <t>2.8</t>
@@ -656,7 +662,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -665,12 +671,12 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -679,7 +685,7 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -714,13 +720,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -734,7 +740,7 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -748,7 +754,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -756,13 +762,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -770,13 +776,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -811,13 +817,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -831,7 +837,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -839,24 +845,24 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
         <v>39</v>
@@ -867,10 +873,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D6" t="s">
         <v>40</v>
@@ -936,10 +942,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
         <v>51</v>
@@ -950,10 +956,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
         <v>51</v>
@@ -1005,13 +1011,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1019,13 +1025,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1033,13 +1039,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
         <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1047,13 +1053,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1061,13 +1067,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1102,13 +1108,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1116,13 +1122,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1130,13 +1136,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1144,13 +1150,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1158,13 +1164,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/nba/Excel/leaders_nba.xlsx
+++ b/nba/Excel/leaders_nba.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="72">
   <si>
     <t>Rank</t>
   </si>
@@ -66,12 +66,15 @@
     <t>5.0</t>
   </si>
   <si>
-    <t>4.0</t>
+    <t>3.9</t>
   </si>
   <si>
     <t>3.4</t>
   </si>
   <si>
+    <t>3.3</t>
+  </si>
+  <si>
     <t>Tyrese Haliburton</t>
   </si>
   <si>
@@ -93,16 +96,16 @@
     <t>11.7</t>
   </si>
   <si>
-    <t>10.8</t>
-  </si>
-  <si>
-    <t>9.4</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>8.5</t>
+    <t>10.9</t>
+  </si>
+  <si>
+    <t>9.5</t>
+  </si>
+  <si>
+    <t>8.9</t>
+  </si>
+  <si>
+    <t>8.4</t>
   </si>
   <si>
     <t>Joel Embiid</t>
@@ -114,7 +117,7 @@
     <t>Giannis Antetokounmpo</t>
   </si>
   <si>
-    <t>Kevin Durant</t>
+    <t>Donovan Mitchell</t>
   </si>
   <si>
     <t>PHI</t>
@@ -126,22 +129,22 @@
     <t>MIL</t>
   </si>
   <si>
-    <t>PHX</t>
+    <t>CLE</t>
   </si>
   <si>
     <t>35.3</t>
   </si>
   <si>
-    <t>34.5</t>
+    <t>34.2</t>
   </si>
   <si>
     <t>31.1</t>
   </si>
   <si>
-    <t>30.7</t>
-  </si>
-  <si>
-    <t>28.3</t>
+    <t>30.8</t>
+  </si>
+  <si>
+    <t>28.4</t>
   </si>
   <si>
     <t>Domantas Sabonis</t>
@@ -150,24 +153,24 @@
     <t>Rudy Gobert</t>
   </si>
   <si>
+    <t>Anthony Davis</t>
+  </si>
+  <si>
     <t>Jalen Duren</t>
   </si>
   <si>
-    <t>Anthony Davis</t>
-  </si>
-  <si>
     <t>SAC</t>
   </si>
   <si>
     <t>MIN</t>
   </si>
   <si>
+    <t>LAL</t>
+  </si>
+  <si>
     <t>DET</t>
   </si>
   <si>
-    <t>LAL</t>
-  </si>
-  <si>
     <t>13.2</t>
   </si>
   <si>
@@ -177,10 +180,7 @@
     <t>12.2</t>
   </si>
   <si>
-    <t>12.1</t>
-  </si>
-  <si>
-    <t>Donovan Mitchell</t>
+    <t>12.0</t>
   </si>
   <si>
     <t>De'Aaron Fox</t>
@@ -192,18 +192,12 @@
     <t>Paul George</t>
   </si>
   <si>
-    <t>CLE</t>
-  </si>
-  <si>
     <t>2.2</t>
   </si>
   <si>
     <t>1.9</t>
   </si>
   <si>
-    <t>1.8</t>
-  </si>
-  <si>
     <t>1.7</t>
   </si>
   <si>
@@ -228,7 +222,7 @@
     <t>UTAH</t>
   </si>
   <si>
-    <t>3.0</t>
+    <t>3.2</t>
   </si>
   <si>
     <t>2.8</t>
@@ -240,7 +234,7 @@
     <t>2.6</t>
   </si>
   <si>
-    <t>2.4</t>
+    <t>2.5</t>
   </si>
 </sst>
 </file>
@@ -676,7 +670,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -685,7 +679,7 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -720,13 +714,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -740,7 +734,7 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -754,7 +748,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -762,13 +756,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -776,13 +770,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -817,13 +811,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -837,7 +831,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -845,13 +839,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -859,13 +853,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -873,13 +867,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -914,13 +908,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -928,13 +922,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -942,41 +936,41 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1011,13 +1005,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1025,27 +1019,27 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1056,10 +1050,10 @@
         <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1070,10 +1064,10 @@
         <v>56</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1108,13 +1102,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" t="s">
         <v>67</v>
-      </c>
-      <c r="D2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1122,13 +1116,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
         <v>68</v>
-      </c>
-      <c r="D3" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1136,13 +1130,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1150,13 +1144,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1170,7 +1164,7 @@
         <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/nba/Excel/leaders_nba.xlsx
+++ b/nba/Excel/leaders_nba.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="70">
   <si>
     <t>Rank</t>
   </si>
@@ -63,7 +63,7 @@
     <t>ATL</t>
   </si>
   <si>
-    <t>5.0</t>
+    <t>5.1</t>
   </si>
   <si>
     <t>3.9</t>
@@ -81,7 +81,7 @@
     <t>Nikola Jokic</t>
   </si>
   <si>
-    <t>James Harden</t>
+    <t>Domantas Sabonis</t>
   </si>
   <si>
     <t>IND</t>
@@ -90,109 +90,109 @@
     <t>DEN</t>
   </si>
   <si>
+    <t>SAC</t>
+  </si>
+  <si>
+    <t>11.7</t>
+  </si>
+  <si>
+    <t>10.9</t>
+  </si>
+  <si>
+    <t>9.6</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t>Joel Embiid</t>
+  </si>
+  <si>
+    <t>Shai Gilgeous-Alexander</t>
+  </si>
+  <si>
+    <t>Giannis Antetokounmpo</t>
+  </si>
+  <si>
+    <t>Donovan Mitchell</t>
+  </si>
+  <si>
+    <t>PHI</t>
+  </si>
+  <si>
+    <t>OKC</t>
+  </si>
+  <si>
+    <t>MIL</t>
+  </si>
+  <si>
+    <t>CLE</t>
+  </si>
+  <si>
+    <t>35.3</t>
+  </si>
+  <si>
+    <t>34.3</t>
+  </si>
+  <si>
+    <t>31.1</t>
+  </si>
+  <si>
+    <t>30.8</t>
+  </si>
+  <si>
+    <t>28.4</t>
+  </si>
+  <si>
+    <t>Rudy Gobert</t>
+  </si>
+  <si>
+    <t>Anthony Davis</t>
+  </si>
+  <si>
+    <t>Jalen Duren</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>LAL</t>
+  </si>
+  <si>
+    <t>DET</t>
+  </si>
+  <si>
+    <t>13.2</t>
+  </si>
+  <si>
+    <t>12.5</t>
+  </si>
+  <si>
+    <t>12.2</t>
+  </si>
+  <si>
+    <t>12.1</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>De'Aaron Fox</t>
+  </si>
+  <si>
+    <t>Kawhi Leonard</t>
+  </si>
+  <si>
+    <t>De'Anthony Melton</t>
+  </si>
+  <si>
     <t>LAC</t>
   </si>
   <si>
-    <t>11.7</t>
-  </si>
-  <si>
-    <t>10.9</t>
-  </si>
-  <si>
-    <t>9.5</t>
-  </si>
-  <si>
-    <t>8.9</t>
-  </si>
-  <si>
-    <t>8.4</t>
-  </si>
-  <si>
-    <t>Joel Embiid</t>
-  </si>
-  <si>
-    <t>Shai Gilgeous-Alexander</t>
-  </si>
-  <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
-    <t>Donovan Mitchell</t>
-  </si>
-  <si>
-    <t>PHI</t>
-  </si>
-  <si>
-    <t>OKC</t>
-  </si>
-  <si>
-    <t>MIL</t>
-  </si>
-  <si>
-    <t>CLE</t>
-  </si>
-  <si>
-    <t>35.3</t>
-  </si>
-  <si>
-    <t>34.2</t>
-  </si>
-  <si>
-    <t>31.1</t>
-  </si>
-  <si>
-    <t>30.8</t>
-  </si>
-  <si>
-    <t>28.4</t>
-  </si>
-  <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
-    <t>Anthony Davis</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>SAC</t>
-  </si>
-  <si>
-    <t>MIN</t>
-  </si>
-  <si>
-    <t>LAL</t>
-  </si>
-  <si>
-    <t>DET</t>
-  </si>
-  <si>
-    <t>13.2</t>
-  </si>
-  <si>
-    <t>12.5</t>
-  </si>
-  <si>
-    <t>12.2</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
-    <t>De'Aaron Fox</t>
-  </si>
-  <si>
-    <t>Kawhi Leonard</t>
-  </si>
-  <si>
-    <t>Paul George</t>
-  </si>
-  <si>
-    <t>2.2</t>
+    <t>2.1</t>
   </si>
   <si>
     <t>1.9</t>
@@ -207,12 +207,12 @@
     <t>Victor Wembanyama</t>
   </si>
   <si>
+    <t>Brook Lopez</t>
+  </si>
+  <si>
     <t>Walker Kessler</t>
   </si>
   <si>
-    <t>Brook Lopez</t>
-  </si>
-  <si>
     <t>Chet Holmgren</t>
   </si>
   <si>
@@ -225,13 +225,7 @@
     <t>3.2</t>
   </si>
   <si>
-    <t>2.8</t>
-  </si>
-  <si>
     <t>2.7</t>
-  </si>
-  <si>
-    <t>2.6</t>
   </si>
   <si>
     <t>2.5</t>
@@ -908,13 +902,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -922,13 +916,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -936,13 +930,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -956,21 +950,21 @@
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1033,10 +1027,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>58</v>
@@ -1047,10 +1041,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="D5" t="s">
         <v>59</v>
@@ -1061,10 +1055,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
         <v>60</v>
@@ -1119,7 +1113,7 @@
         <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
         <v>68</v>
@@ -1127,21 +1121,21 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
@@ -1150,7 +1144,7 @@
         <v>34</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1158,13 +1152,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/nba/Excel/leaders_nba.xlsx
+++ b/nba/Excel/leaders_nba.xlsx
@@ -42,85 +42,85 @@
     <t>Anfernee Simons</t>
   </si>
   <si>
-    <t>CJ McCollum</t>
+    <t>Donovan Mitchell</t>
+  </si>
+  <si>
+    <t>Desmond Bane</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>POR</t>
+  </si>
+  <si>
+    <t>CLE</t>
+  </si>
+  <si>
+    <t>MEM</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>Tyrese Haliburton</t>
   </si>
   <si>
     <t>Trae Young</t>
   </si>
   <si>
-    <t>GS</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>POR</t>
-  </si>
-  <si>
-    <t>NO</t>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Domantas Sabonis</t>
+  </si>
+  <si>
+    <t>IND</t>
   </si>
   <si>
     <t>ATL</t>
   </si>
   <si>
-    <t>5.1</t>
-  </si>
-  <si>
-    <t>3.9</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>Tyrese Haliburton</t>
-  </si>
-  <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
-    <t>IND</t>
-  </si>
-  <si>
     <t>DEN</t>
   </si>
   <si>
     <t>SAC</t>
   </si>
   <si>
-    <t>11.7</t>
-  </si>
-  <si>
-    <t>10.9</t>
-  </si>
-  <si>
-    <t>9.6</t>
-  </si>
-  <si>
-    <t>9.1</t>
+    <t>11.4</t>
+  </si>
+  <si>
+    <t>10.8</t>
+  </si>
+  <si>
+    <t>9.8</t>
+  </si>
+  <si>
+    <t>9.2</t>
   </si>
   <si>
     <t>8.4</t>
   </si>
   <si>
-    <t>Joel Embiid</t>
-  </si>
-  <si>
     <t>Shai Gilgeous-Alexander</t>
   </si>
   <si>
     <t>Giannis Antetokounmpo</t>
   </si>
   <si>
-    <t>Donovan Mitchell</t>
-  </si>
-  <si>
-    <t>PHI</t>
+    <t>Kevin Durant</t>
   </si>
   <si>
     <t>OKC</t>
@@ -129,10 +129,7 @@
     <t>MIL</t>
   </si>
   <si>
-    <t>CLE</t>
-  </si>
-  <si>
-    <t>35.3</t>
+    <t>PHX</t>
   </si>
   <si>
     <t>34.3</t>
@@ -144,7 +141,10 @@
     <t>30.8</t>
   </si>
   <si>
-    <t>28.4</t>
+    <t>28.3</t>
+  </si>
+  <si>
+    <t>27.7</t>
   </si>
   <si>
     <t>Rudy Gobert</t>
@@ -165,30 +165,30 @@
     <t>DET</t>
   </si>
   <si>
-    <t>13.2</t>
-  </si>
-  <si>
-    <t>12.5</t>
-  </si>
-  <si>
-    <t>12.2</t>
-  </si>
-  <si>
-    <t>12.1</t>
-  </si>
-  <si>
-    <t>12.0</t>
+    <t>13.6</t>
+  </si>
+  <si>
+    <t>12.9</t>
+  </si>
+  <si>
+    <t>12.4</t>
+  </si>
+  <si>
+    <t>12.3</t>
+  </si>
+  <si>
+    <t>11.9</t>
   </si>
   <si>
     <t>De'Aaron Fox</t>
   </si>
   <si>
+    <t>Matisse Thybulle</t>
+  </si>
+  <si>
     <t>Kawhi Leonard</t>
   </si>
   <si>
-    <t>De'Anthony Melton</t>
-  </si>
-  <si>
     <t>LAC</t>
   </si>
   <si>
@@ -198,21 +198,21 @@
     <t>1.9</t>
   </si>
   <si>
+    <t>1.8</t>
+  </si>
+  <si>
     <t>1.7</t>
   </si>
   <si>
-    <t>1.6</t>
-  </si>
-  <si>
     <t>Victor Wembanyama</t>
   </si>
   <si>
+    <t>Walker Kessler</t>
+  </si>
+  <si>
     <t>Brook Lopez</t>
   </si>
   <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
     <t>Chet Holmgren</t>
   </si>
   <si>
@@ -222,13 +222,13 @@
     <t>UTAH</t>
   </si>
   <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>2.7</t>
+    <t>2.6</t>
   </si>
   <si>
     <t>2.5</t>
+  </si>
+  <si>
+    <t>2.4</t>
   </si>
 </sst>
 </file>
@@ -711,10 +711,10 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -722,13 +722,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -742,7 +742,7 @@
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -750,13 +750,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -764,13 +764,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -805,10 +805,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>37</v>
@@ -819,10 +819,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
         <v>38</v>
@@ -833,10 +833,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
         <v>39</v>
@@ -847,10 +847,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
         <v>40</v>
@@ -861,10 +861,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
         <v>41</v>
@@ -902,10 +902,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>48</v>
@@ -944,10 +944,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>51</v>
@@ -999,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
         <v>34</v>
@@ -1013,10 +1013,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>58</v>
@@ -1024,27 +1024,27 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
         <v>59</v>
@@ -1058,7 +1058,7 @@
         <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
         <v>60</v>
@@ -1102,7 +1102,7 @@
         <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1113,10 +1113,10 @@
         <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1127,15 +1127,15 @@
         <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>

--- a/nba/Excel/leaders_nba.xlsx
+++ b/nba/Excel/leaders_nba.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="64">
   <si>
     <t>Rank</t>
   </si>
@@ -33,202 +33,184 @@
     <t>Valor</t>
   </si>
   <si>
-    <t>Stephen Curry</t>
+    <t>Damian Lillard</t>
   </si>
   <si>
     <t>Luka Doncic</t>
   </si>
   <si>
-    <t>Anfernee Simons</t>
-  </si>
-  <si>
-    <t>Donovan Mitchell</t>
-  </si>
-  <si>
-    <t>Desmond Bane</t>
-  </si>
-  <si>
-    <t>GS</t>
+    <t>Tyler Herro</t>
+  </si>
+  <si>
+    <t>James Harden</t>
+  </si>
+  <si>
+    <t>Josh Hart</t>
+  </si>
+  <si>
+    <t>MIL</t>
   </si>
   <si>
     <t>DAL</t>
   </si>
   <si>
-    <t>POR</t>
+    <t>MIA</t>
+  </si>
+  <si>
+    <t>LAC</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>Tyrese Haliburton</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>LAL</t>
+  </si>
+  <si>
+    <t>DEN</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>9.7</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>8.7</t>
+  </si>
+  <si>
+    <t>Joel Embiid</t>
+  </si>
+  <si>
+    <t>Pascal Siakam</t>
+  </si>
+  <si>
+    <t>Anthony Davis</t>
+  </si>
+  <si>
+    <t>PHI</t>
+  </si>
+  <si>
+    <t>37.7</t>
+  </si>
+  <si>
+    <t>36.5</t>
+  </si>
+  <si>
+    <t>34.5</t>
+  </si>
+  <si>
+    <t>32.5</t>
+  </si>
+  <si>
+    <t>32.3</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
+    <t>Jonas Valanciunas</t>
+  </si>
+  <si>
+    <t>Ivica Zubac</t>
   </si>
   <si>
     <t>CLE</t>
   </si>
   <si>
-    <t>MEM</t>
-  </si>
-  <si>
-    <t>4.9</t>
-  </si>
-  <si>
-    <t>3.9</t>
-  </si>
-  <si>
-    <t>3.4</t>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>Tyrese Haliburton</t>
-  </si>
-  <si>
-    <t>Trae Young</t>
-  </si>
-  <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Domantas Sabonis</t>
-  </si>
-  <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>ATL</t>
-  </si>
-  <si>
-    <t>DEN</t>
-  </si>
-  <si>
-    <t>SAC</t>
-  </si>
-  <si>
-    <t>11.4</t>
-  </si>
-  <si>
-    <t>10.8</t>
-  </si>
-  <si>
-    <t>9.8</t>
-  </si>
-  <si>
-    <t>9.2</t>
-  </si>
-  <si>
-    <t>8.4</t>
-  </si>
-  <si>
-    <t>Shai Gilgeous-Alexander</t>
-  </si>
-  <si>
-    <t>Giannis Antetokounmpo</t>
-  </si>
-  <si>
-    <t>Kevin Durant</t>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>15.7</t>
+  </si>
+  <si>
+    <t>15.3</t>
+  </si>
+  <si>
+    <t>13.5</t>
+  </si>
+  <si>
+    <t>13.3</t>
+  </si>
+  <si>
+    <t>Kawhi Leonard</t>
+  </si>
+  <si>
+    <t>Kyrie Irving</t>
+  </si>
+  <si>
+    <t>Nickeil Alexander-Walker</t>
+  </si>
+  <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
+    <t>Kelly Oubre Jr.</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>Chet Holmgren</t>
+  </si>
+  <si>
+    <t>Brook Lopez</t>
+  </si>
+  <si>
+    <t>Evan Mobley</t>
+  </si>
+  <si>
+    <t>Kristaps Porzingis</t>
+  </si>
+  <si>
+    <t>Jonathan Isaac</t>
   </si>
   <si>
     <t>OKC</t>
   </si>
   <si>
-    <t>MIL</t>
-  </si>
-  <si>
-    <t>PHX</t>
-  </si>
-  <si>
-    <t>34.3</t>
-  </si>
-  <si>
-    <t>31.1</t>
-  </si>
-  <si>
-    <t>30.8</t>
-  </si>
-  <si>
-    <t>28.3</t>
-  </si>
-  <si>
-    <t>27.7</t>
-  </si>
-  <si>
-    <t>Rudy Gobert</t>
-  </si>
-  <si>
-    <t>Anthony Davis</t>
-  </si>
-  <si>
-    <t>Jalen Duren</t>
-  </si>
-  <si>
-    <t>MIN</t>
-  </si>
-  <si>
-    <t>LAL</t>
-  </si>
-  <si>
-    <t>DET</t>
-  </si>
-  <si>
-    <t>13.6</t>
-  </si>
-  <si>
-    <t>12.9</t>
-  </si>
-  <si>
-    <t>12.4</t>
-  </si>
-  <si>
-    <t>12.3</t>
-  </si>
-  <si>
-    <t>11.9</t>
-  </si>
-  <si>
-    <t>De'Aaron Fox</t>
-  </si>
-  <si>
-    <t>Matisse Thybulle</t>
-  </si>
-  <si>
-    <t>Kawhi Leonard</t>
-  </si>
-  <si>
-    <t>LAC</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>1.9</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>Victor Wembanyama</t>
-  </si>
-  <si>
-    <t>Walker Kessler</t>
-  </si>
-  <si>
-    <t>Brook Lopez</t>
-  </si>
-  <si>
-    <t>Chet Holmgren</t>
-  </si>
-  <si>
-    <t>SA</t>
-  </si>
-  <si>
-    <t>UTAH</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>2.4</t>
+    <t>BOS</t>
+  </si>
+  <si>
+    <t>ORL</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>2.0</t>
   </si>
 </sst>
 </file>
@@ -636,7 +618,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -645,12 +627,12 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -664,7 +646,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -673,7 +655,7 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -708,13 +690,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -722,13 +704,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -736,13 +718,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -750,27 +732,27 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -805,13 +787,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -819,13 +801,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -833,13 +815,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -847,13 +829,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -861,13 +843,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -902,13 +884,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -916,13 +898,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -930,27 +912,27 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -958,13 +940,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -999,13 +981,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1013,41 +995,41 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1055,13 +1037,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1096,13 +1078,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1110,27 +1092,27 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1138,27 +1120,27 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/nba/Excel/leaders_nba.xlsx
+++ b/nba/Excel/leaders_nba.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="67">
   <si>
     <t>Rank</t>
   </si>
@@ -36,181 +36,190 @@
     <t>Damian Lillard</t>
   </si>
   <si>
+    <t>Derrick White</t>
+  </si>
+  <si>
+    <t>Tyrese Maxey</t>
+  </si>
+  <si>
+    <t>Tyrese Haliburton</t>
+  </si>
+  <si>
+    <t>Donte DiVincenzo</t>
+  </si>
+  <si>
+    <t>MIL</t>
+  </si>
+  <si>
+    <t>BOS</t>
+  </si>
+  <si>
+    <t>PHI</t>
+  </si>
+  <si>
+    <t>IND</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
+  </si>
+  <si>
+    <t>LeBron James</t>
+  </si>
+  <si>
     <t>Luka Doncic</t>
   </si>
   <si>
-    <t>Tyler Herro</t>
-  </si>
-  <si>
     <t>James Harden</t>
   </si>
   <si>
+    <t>DEN</t>
+  </si>
+  <si>
+    <t>LAL</t>
+  </si>
+  <si>
+    <t>DAL</t>
+  </si>
+  <si>
+    <t>LAC</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>8.8</t>
+  </si>
+  <si>
+    <t>8.5</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>Joel Embiid</t>
+  </si>
+  <si>
+    <t>Jalen Brunson</t>
+  </si>
+  <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
+    <t>MIN</t>
+  </si>
+  <si>
+    <t>33.0</t>
+  </si>
+  <si>
+    <t>32.9</t>
+  </si>
+  <si>
+    <t>32.1</t>
+  </si>
+  <si>
+    <t>31.3</t>
+  </si>
+  <si>
+    <t>29.8</t>
+  </si>
+  <si>
+    <t>Anthony Davis</t>
+  </si>
+  <si>
+    <t>Jarrett Allen</t>
+  </si>
+  <si>
     <t>Josh Hart</t>
   </si>
   <si>
-    <t>MIL</t>
-  </si>
-  <si>
-    <t>DAL</t>
-  </si>
-  <si>
-    <t>MIA</t>
-  </si>
-  <si>
-    <t>LAC</t>
-  </si>
-  <si>
-    <t>NY</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>4.5</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>Tyrese Haliburton</t>
-  </si>
-  <si>
-    <t>LeBron James</t>
-  </si>
-  <si>
-    <t>Nikola Jokic</t>
-  </si>
-  <si>
-    <t>Jalen Brunson</t>
-  </si>
-  <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>LAL</t>
-  </si>
-  <si>
-    <t>DEN</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>9.7</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>8.7</t>
-  </si>
-  <si>
-    <t>Joel Embiid</t>
-  </si>
-  <si>
-    <t>Pascal Siakam</t>
-  </si>
-  <si>
-    <t>Anthony Davis</t>
-  </si>
-  <si>
-    <t>PHI</t>
-  </si>
-  <si>
-    <t>37.7</t>
-  </si>
-  <si>
-    <t>36.5</t>
-  </si>
-  <si>
-    <t>34.5</t>
-  </si>
-  <si>
-    <t>32.5</t>
-  </si>
-  <si>
-    <t>32.3</t>
-  </si>
-  <si>
-    <t>Jarrett Allen</t>
-  </si>
-  <si>
-    <t>Jonas Valanciunas</t>
-  </si>
-  <si>
-    <t>Ivica Zubac</t>
+    <t>Bobby Portis</t>
   </si>
   <si>
     <t>CLE</t>
   </si>
   <si>
+    <t>15.6</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>13.8</t>
+  </si>
+  <si>
+    <t>12.3</t>
+  </si>
+  <si>
+    <t>11.3</t>
+  </si>
+  <si>
+    <t>Kawhi Leonard</t>
+  </si>
+  <si>
+    <t>Kelly Oubre Jr.</t>
+  </si>
+  <si>
+    <t>CJ McCollum</t>
+  </si>
+  <si>
+    <t>Devin Booker</t>
+  </si>
+  <si>
     <t>NO</t>
   </si>
   <si>
-    <t>15.7</t>
-  </si>
-  <si>
-    <t>15.3</t>
-  </si>
-  <si>
-    <t>13.5</t>
-  </si>
-  <si>
-    <t>13.3</t>
-  </si>
-  <si>
-    <t>Kawhi Leonard</t>
-  </si>
-  <si>
-    <t>Kyrie Irving</t>
-  </si>
-  <si>
-    <t>Nickeil Alexander-Walker</t>
-  </si>
-  <si>
-    <t>Anthony Edwards</t>
-  </si>
-  <si>
-    <t>Kelly Oubre Jr.</t>
-  </si>
-  <si>
-    <t>MIN</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>2.3</t>
+    <t>PHX</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>1.8</t>
   </si>
   <si>
     <t>Chet Holmgren</t>
   </si>
   <si>
-    <t>Brook Lopez</t>
-  </si>
-  <si>
     <t>Evan Mobley</t>
   </si>
   <si>
-    <t>Kristaps Porzingis</t>
-  </si>
-  <si>
-    <t>Jonathan Isaac</t>
+    <t>Shai Gilgeous-Alexander</t>
+  </si>
+  <si>
+    <t>Kevin Durant</t>
   </si>
   <si>
     <t>OKC</t>
   </si>
   <si>
-    <t>BOS</t>
-  </si>
-  <si>
-    <t>ORL</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>2.0</t>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>1.5</t>
   </si>
 </sst>
 </file>
@@ -646,7 +655,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -655,7 +664,7 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -690,13 +699,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -704,27 +713,27 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -732,27 +741,27 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -787,13 +796,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -801,13 +810,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -815,13 +824,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -829,13 +838,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -843,13 +852,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -884,13 +893,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -898,13 +907,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -912,27 +921,27 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -940,13 +949,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -981,13 +990,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -995,55 +1004,55 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1078,13 +1087,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1092,13 +1101,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1106,13 +1115,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1120,27 +1129,27 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
